--- a/TestingData/ConfigureData.xlsx
+++ b/TestingData/ConfigureData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Voc</t>
   </si>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t>Temp</t>
+  </si>
+  <si>
+    <t>21 V</t>
+  </si>
+  <si>
+    <t>3 A</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>100 %</t>
   </si>
 </sst>
 </file>
@@ -73,7 +85,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,7 +369,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -377,17 +389,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>50</v>
-      </c>
-      <c r="D2">
-        <v>322</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/TestingData/ConfigureData.xlsx
+++ b/TestingData/ConfigureData.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23405"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Tenxer\TestingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6DE6202-D270-412C-A7CD-9EC6D4B08BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Voc</t>
   </si>
@@ -44,17 +54,26 @@
     <t>3 A</t>
   </si>
   <si>
+    <t>100 %</t>
+  </si>
+  <si>
     <t>322</t>
   </si>
   <si>
-    <t>100 %</t>
+    <t>27 V</t>
+  </si>
+  <si>
+    <t>75 %</t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,16 +384,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,7 +407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -396,10 +415,24 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TestingData/ConfigureData.xlsx
+++ b/TestingData/ConfigureData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Tenxer\TestingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6DE6202-D270-412C-A7CD-9EC6D4B08BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6E8419C-1306-407C-8492-8BC7D4AB9021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Voc</t>
   </si>
@@ -58,15 +58,6 @@
   </si>
   <si>
     <t>322</t>
-  </si>
-  <si>
-    <t>27 V</t>
-  </si>
-  <si>
-    <t>75 %</t>
-  </si>
-  <si>
-    <t>300</t>
   </si>
 </sst>
 </file>
@@ -388,7 +379,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -422,18 +413,10 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
